--- a/biology/Microbiologie/Incisomonadidae/Incisomonadidae.xlsx
+++ b/biology/Microbiologie/Incisomonadidae/Incisomonadidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Incisomonadidae sont une famille de chromistes de l'embranchement des Bigyra, de la classe des Nanomonadea et de l’ordre des Uniciliatida.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Incisomonas, dérivé du latin incisio, « coupure », et du grec μονασ / monas, « seul, solitaire, isolé », littéralement « monade coupée », en référence à l'absence inhabituelle de cil antérieur chez cette monade[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Incisomonas, dérivé du latin incisio, « coupure », et du grec μονασ / monas, « seul, solitaire, isolé », littéralement « monade coupée », en référence à l'absence inhabituelle de cil antérieur chez cette monade.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Scoble et Cavalier-Smith donnent de Incisomonas cette description introductive 
 « Nous décrivons un nouveau flagellé hétérokonte[note 1] marin hétérotrophe, Incisomonas marina, qui, de façon très inhabituelle, est dépourvu de cil antérieur. 
-Il glisse et nage avec son cil traînant derrière, mais est principalement sédentaire sur le substrat, avec ou sans cil. La phylogénie [..] regroupe fortement Incisomonas avec d'autres flagellés ; il forme un clade sœur robuste avec (le genre) Solenicola, dans le nouvel ordre des Uniciliatida, et la nouvelle classe des Nanomonadea[1]... »
+Il glisse et nage avec son cil traînant derrière, mais est principalement sédentaire sur le substrat, avec ou sans cil. La phylogénie [..] regroupe fortement Incisomonas avec d'autres flagellés ; il forme un clade sœur robuste avec (le genre) Solenicola, dans le nouvel ordre des Uniciliatida, et la nouvelle classe des Nanomonadea... »
 </t>
         </is>
       </c>
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -603,9 +621,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (16 septembre 2022)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (16 septembre 2022) :
 Incisomonas Scoble &amp; Cavalier-Smith, 2013</t>
         </is>
       </c>
@@ -634,9 +654,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct de ce taxon est Incisomonadidae Cavalier-Smith &amp; Scoble, 2013[3],[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct de ce taxon est Incisomonadidae Cavalier-Smith &amp; Scoble, 2013,.
 </t>
         </is>
       </c>
@@ -665,7 +687,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) J. M. Scoble et T. Cavalier-Smith, « Phylogeny of Heterokonta: Incisomonas marina, a uniciliate gliding opalozoan related to Solenicola (Nanomonadea), and evidence that Actinophryida evolved from raphidophytes », European Journal of Protistology, Allemagne, vol. 49, no 3,‎ 2013, p. 328-353 (ISSN 0932-4739, lire en ligne).</t>
         </is>
